--- a/데이터 파일/2020 타자 명단.xlsx
+++ b/데이터 파일/2020 타자 명단.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\상도동그리즈만\Desktop\이미지 연구실 학부연구생\SW융합 학부연구생\DeepLearning_BeTheLegend\데이터 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89DFC64-405E-4CFC-A08C-642178BDD537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E23A9D-8088-4476-AA5C-851E469C3023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C76FB7A4-1019-4E2B-8C39-AE766219AEBA}"/>
   </bookViews>
@@ -430,7 +430,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김태균</t>
+    <t>반즈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEDB743-BDD3-4D14-AAE0-E4210A1C51E7}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
